--- a/02_Proyecto/09. Programa Auditoria/PROGRAMA_AUDI_INTERNA_GRUPO_5_V3.xlsx
+++ b/02_Proyecto/09. Programa Auditoria/PROGRAMA_AUDI_INTERNA_GRUPO_5_V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFB183E-286D-473B-A9E4-E85C564D61F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBA8E15-893E-4502-8663-0C2215295E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. PROGRAMA" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
   <si>
     <t>Código: UPDI-PRG-V1-2024-040</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Jerly Reinoso</t>
   </si>
   <si>
-    <t>Auditoría de Pagos Online: Se revisará la eficiencia y seguridad de los métodos de pago, confirmando la encriptación de datos y cumplimiento de PCI-DSS.</t>
-  </si>
-  <si>
     <t>Seguridad de la Plataforma: Se evaluará la seguridad del sitio web, identificando vulnerabilidades y garantizando la protección de datos del cliente.</t>
   </si>
   <si>
@@ -440,100 +437,28 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>Verificación de Métodos de Pago</t>
-  </si>
-  <si>
-    <t>Identificación de Pasarelas de Pago Disponibles: Listar y revisar las pasarelas de pago integradas en el sistema (ejemplo: Stripe, PayPal, MercadoPago).
-Pruebas de Funcionalidad de los Métodos de Pago: Realizar pruebas de una transacción completa con cada método de pago para verificar el correcto funcionamiento (incluyendo transacciones autorizadas, rechazadas y fallidas).
-Validación de Métodos Alternativos: Confirmar que existen opciones de pago alternas en caso de falla de una pasarela principal.</t>
-  </si>
-  <si>
     <t>2.2</t>
-  </si>
-  <si>
-    <t>Revisión de Cifrado de Datos</t>
-  </si>
-  <si>
-    <t>Verificación del Protocolo HTTPS: Revisar que todo el proceso de pago se realice bajo un canal cifrado.
-Pruebas de Exposición de Datos en Tránsito: Simular ataques como "Man-in-the-Middle" (MITM) para verificar que los datos sensibles no se exponen.
-Cifrado de Datos Sensibles en la Base de Datos: Validar que los números de tarjeta de crédito y otra información sensible estén cifrados con algoritmos robustos.</t>
   </si>
   <si>
     <t>2.3</t>
   </si>
   <si>
-    <t>Pruebas de Seguridad y Cumplimiento</t>
-  </si>
-  <si>
-    <t>Pruebas de Vulnerabilidades Comunes: Realizar escaneos automatizados y manuales para identificar vulnerabilidades OWASP Top 10 relacionadas con el sistema de pagos.
-Validación de Cumplimiento PCI-DSS: Confirmar que los estándares de almacenamiento de datos, retención y eliminación cumplan con la normativa PCI-DSS.
-Pruebas de Seguridad contra Ataques de Repetición: Asegurarse de que las transacciones repetidas no sean procesadas nuevamente por errores del cliente o ataques maliciosos.</t>
-  </si>
-  <si>
     <t>2.4</t>
-  </si>
-  <si>
-    <t>Gestión de Sesiones y Autenticación</t>
-  </si>
-  <si>
-    <t>Tiempos de Expiración de Sesión: Confirmar que las sesiones inactivas expiren automáticamente después de un tiempo predeterminado.
-Revisión de Seguridad de Tokens de Autenticación: Verificar que los tokens utilizados en el proceso de pago sean únicos, de un solo uso y seguros contra ataques de reutilización.
-Validación de Multi-Factor Authentication (MFA): Comprobar si se implementa un segundo factor de autenticación durante procesos críticos, como pagos de alto valor.</t>
   </si>
   <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>Manejo de Errores en Pagos</t>
-  </si>
-  <si>
-    <t>Mensajes de Error Controlados: Revisar que los mensajes de error sean genéricos y no expongan información técnica.
-Pruebas de Reintentos de Transacciones: Validar que los usuarios puedan reintentar una transacción fallida sin crear duplicados en el sistema.
-Validación de Redirección Correcta: Asegurar que los usuarios sean redirigidos correctamente en caso de errores.</t>
-  </si>
-  <si>
     <t>2.6</t>
-  </si>
-  <si>
-    <t>Registro y Monitoreo de Transacciones</t>
-  </si>
-  <si>
-    <t>Revisión de Logs de Transacciones: Confirmar que los registros incluyan toda la información necesaria (ID de transacción, marca de tiempo, estado, IP del cliente).
-Seguridad en el Almacenamiento de Logs: Verificar que los logs estén protegidos contra accesos no autorizados, utilizando cifrado o control de permisos.
-Detección de Actividad Fraudulenta: Validar que existan mecanismos para identificar patrones de fraude.</t>
   </si>
   <si>
     <t>2.7</t>
   </si>
   <si>
-    <t>Pruebas de Integración del Proceso de Pago con Sistemas Externos</t>
-  </si>
-  <si>
-    <t>Integración con Bancos: Verificar la comunicación fluida entre el sistema y los servidores bancarios para la autorización y liquidación de pagos.
-Sincronización con Sistemas de Facturación: Confirmar que, después de cada transacción exitosa, se genere automáticamente una factura electrónica o recibo para el cliente.
-Pruebas de Tiempos de Respuesta: Validar que las respuestas de las pasarelas de pago cumplan con tiempos aceptables.</t>
-  </si>
-  <si>
     <t>2.8</t>
   </si>
   <si>
-    <t>Pruebas de Escalabilidad y Concurrencia</t>
-  </si>
-  <si>
-    <t>Carga de Transacciones Simultáneas: Realizar pruebas simulando múltiples usuarios procesando pagos al mismo tiempo para evaluar la estabilidad del sistema.
-Pruebas de Degradación del Sistema: Simular altas cargas para observar cómo el sistema maneja situaciones críticas.
-Validación de Escalabilidad Horizontal: Revisar que el sistema pueda ser escalado para manejar mayores volúmenes de transacciones.</t>
-  </si>
-  <si>
     <t>2.9</t>
-  </si>
-  <si>
-    <t>Validación de Políticas de Protección al Usuario Final</t>
-  </si>
-  <si>
-    <t>Implementación de Reembolsos: Confirmar que el sistema permita procesar reembolsos con control adecuado y trazabilidad.
-Garantía de Protección de Datos: Validar que la información del usuario nunca sea compartida ni utilizada fuera del propósito original del pago.
-Pruebas de UX en el Proceso de Pago: Asegurar que la experiencia del usuario sea clara y sencilla, con información explícita sobre costos, tiempos y políticas de devolución.</t>
   </si>
   <si>
     <r>
@@ -623,6 +548,86 @@
   <si>
     <t>6.7: No es relevante en esta etapa, ya que no se están validando nuevos prototipos, sino monitoreando procesos ya existentes.
 6.10: La migración no es parte del monitoreo continuo..</t>
+  </si>
+  <si>
+    <t>Selección de Proveedores</t>
+  </si>
+  <si>
+    <t>Establecer la capacidad de respuesta, cumplimiento normativo y experiencia técnica de los proveedores.
+Identificar requisitos específicos para la integración con la plataforma de Tiendita.ec, como soporte para pruebas automatizadas y compatibilidad con herramientas de pruebas funcionales (e.g., Cucumber).
+Evaluación documental de los proveedores basada en sus certificaciones y capacidad técnica.
+Implementación de un sistema de puntuación basado en criterios definidos para priorizar los mejores proveedores.</t>
+  </si>
+  <si>
+    <t>Validación de Proveedores</t>
+  </si>
+  <si>
+    <t>Revisión de contratos, políticas de seguridad y certificaciones como ISO/IEC 27001, garantizando que el proveedor cumpla con estándares internacionales.
+Validación del cumplimiento de normativas locales relacionadas con privacidad de datos y comercio electrónico.
+Realizar inspecciones en las instalaciones del proveedor para confirmar la calidad de sus procesos y capacidades técnicas.
+Documentar los hallazgos mediante pruebas específicas diseñadas en Cucumber, simulando escenarios de entrega, gestión de pagos y manejo de pedidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integración de Proveedores</t>
+  </si>
+  <si>
+    <t>Implementar pruebas automatizadas en Cucumber para validar la integración de los proveedores con los sistemas de gestión de Tiendita.ec.
+Realizar pruebas de extremo a extremo que incluyan pedidos, pagos y confirmaciones, asegurando una automatización completa y funcional.
+Revisar la sincronización entre los proveedores y los sistemas internos, como inventarios, envíos y pagos.
+Evaluar el flujo de datos mediante scripts en Cucumber, asegurando la confiabilidad de las interacciones con APIs.</t>
+  </si>
+  <si>
+    <t>Monitoreo y Evaluación Continua</t>
+  </si>
+  <si>
+    <t>Configurar herramientas para supervisar en tiempo real el desempeño de los proveedores, como tiempos de respuesta y cumplimiento de acuerdos de nivel de servicio (SLA).
+Implementar pruebas continuas en Cucumber para detectar cualquier falla en los procesos automatizados o incumplimiento en los acuerdos.
+Generar reportes mensuales basados en métricas como disponibilidad, calidad de servicio y cumplimiento de plazos de entrega.
+Revisar los resultados de las pruebas automatizadas para identificar áreas de mejora en la relación con los proveedores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Validación del Desempeño de los Proveedores</t>
+  </si>
+  <si>
+    <t>Simular escenarios de alta demanda mediante pruebas diseñadas en Cucumber para evaluar la capacidad del proveedor de manejar grandes volúmenes de pedidos.
+Diseñar casos de prueba en Cucumber para medir la percepción del cliente final sobre los servicios proporcionados, como tiempos de entrega y calidad del producto.</t>
+  </si>
+  <si>
+    <t>Evaluación de la Seguridad de los Proveedores</t>
+  </si>
+  <si>
+    <t>Realizar pruebas en Cucumber para verificar que los sistemas de los proveedores cumplen con los estándares de seguridad (como cifrado en reposo y en tránsito).
+Simular intentos de acceso no autorizado y brechas de seguridad para evaluar las medidas implementadas por el proveedor.
+Validar la existencia y efectividad de políticas de manejo de datos sensibles, prevención de fraudes y protección ante ataques cibernéticos.
+Diseñar casos de prueba en Cucumber que cubran escenarios críticos relacionados con la exposición de datos.</t>
+  </si>
+  <si>
+    <t>Validación de Acuerdos de Nivel de Servicio</t>
+  </si>
+  <si>
+    <t>Evaluar los acuerdos de nivel de servicio con los proveedores para asegurarse de que incluyen tiempos de respuesta, disponibilidad y resolución de incidentes.
+Diseñar pruebas en Cucumber para verificar el cumplimiento de estos SLA mediante la simulación de solicitudes en tiempo real.
+Crear casos de prueba automatizados en Cucumber que simulen errores comunes (por ejemplo, fallas en la entrega o demoras) y medir la rapidez con la que el proveedor responde y soluciona dichos problemas.</t>
+  </si>
+  <si>
+    <t>Análisis de Escalabilidad del Proveedor</t>
+  </si>
+  <si>
+    <t>Usar Cucumber para realizar pruebas de estrés simulando escenarios de escalabilidad, como un aumento significativo en los volúmenes de pedidos.
+Verificar si los sistemas del proveedor pueden adaptarse al crecimiento proyectado del negocio sin comprometer la calidad del servicio.
+Implementar pruebas que simulen fallos del sistema, como interrupciones en la conectividad o caídas de servidores, evaluando cómo el proveedor mantiene la continuidad del servicio.
+Validar que el proveedor puede mantener costos competitivos a medida que aumentan los volúmenes de transacciones o las demandas de servicio.</t>
+  </si>
+  <si>
+    <t>Evaluación y Retroalimentación Continua</t>
+  </si>
+  <si>
+    <t>Análisis de los resultados de pruebas automatizadas para identificar problemas recurrentes o áreas de mejora en los servicios del proveedor.
+Realización de reuniones periódicas con proveedores para discutir métricas de desempeño, implementar ajustes y garantizar la mejora continua de los procesos.
+Capacitación y actualización del equipo encargado para asegurar que las herramientas y metodologías de prueba (como Cucumber) sigan alineadas con los estándares actuales.</t>
+  </si>
+  <si>
+    <t>Esto incluirá la definición de criterios de calidad y cumplimiento normativo, la validación de proveedores mediante auditorías documentales y la integración a través de pruebas automatizadas con herramientas como Cucumber, asegurando la sincronización de procesos. Además, se implementará un monitoreo constante para validar el desempeño, la seguridad de los proveedores, y el cumplimiento de los acuerdos de nivel de servicio, con un análisis de escalabilidad que garantice la mejora continua y la estabilidad del sistema bajo escenarios de alta demanda.</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1430,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="29"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="29"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1668,50 +1673,79 @@
     <xf numFmtId="10" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1724,10 +1758,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1746,54 +1776,32 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -1813,8 +1821,14 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2076,8 +2090,8 @@
   </sheetPr>
   <dimension ref="A1:AU998"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C33" zoomScale="70" zoomScaleNormal="25" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:E25"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="70" zoomScaleNormal="25" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24:Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2103,34 +2117,34 @@
     </row>
     <row r="2" spans="1:47" ht="42.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="138" t="s">
-        <v>56</v>
+      <c r="B2" s="116"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="122" t="s">
+        <v>55</v>
       </c>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="109"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="121"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -2154,34 +2168,34 @@
     </row>
     <row r="3" spans="1:47" ht="48.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="138" t="s">
-        <v>57</v>
+      <c r="B3" s="117"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="122" t="s">
+        <v>56</v>
       </c>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="109"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="121"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
@@ -2205,36 +2219,36 @@
     </row>
     <row r="4" spans="1:47" ht="21" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="138" t="s">
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="109"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="121"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
@@ -2306,34 +2320,34 @@
       <c r="AU5" s="2"/>
     </row>
     <row r="6" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113"/>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="113"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="109"/>
+      <c r="AA6" s="109"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
@@ -2350,34 +2364,34 @@
       <c r="AO6" s="7"/>
     </row>
     <row r="7" spans="1:47" ht="26.25" customHeight="1">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="113"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
@@ -2394,34 +2408,34 @@
       <c r="AO7" s="7"/>
     </row>
     <row r="8" spans="1:47" ht="51" customHeight="1">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="113"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="113"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
@@ -2480,34 +2494,34 @@
       <c r="AO9" s="7"/>
     </row>
     <row r="10" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B10" s="134" t="s">
-        <v>55</v>
+      <c r="B10" s="128" t="s">
+        <v>54</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
@@ -2525,34 +2539,34 @@
     </row>
     <row r="11" spans="1:47" ht="60" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="113"/>
-      <c r="Z11" s="113"/>
-      <c r="AA11" s="113"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="109"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -2575,34 +2589,34 @@
       <c r="AU11" s="8"/>
     </row>
     <row r="12" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="113"/>
-      <c r="AA12" s="113"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="109"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
@@ -2619,34 +2633,34 @@
       <c r="AO12" s="7"/>
     </row>
     <row r="13" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="109"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
@@ -2705,34 +2719,34 @@
       <c r="AO14" s="7"/>
     </row>
     <row r="15" spans="1:47" ht="24.75" customHeight="1">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="109"/>
+      <c r="Z15" s="109"/>
+      <c r="AA15" s="109"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
@@ -2750,34 +2764,34 @@
     </row>
     <row r="16" spans="1:47" ht="24.75" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="113"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="109"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
@@ -2800,34 +2814,34 @@
       <c r="AU16" s="2"/>
     </row>
     <row r="17" spans="1:47" ht="24.75" customHeight="1">
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="113"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="109"/>
+      <c r="AA17" s="109"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
@@ -2844,32 +2858,32 @@
       <c r="AO17" s="7"/>
     </row>
     <row r="18" spans="1:47" ht="6.75" customHeight="1" thickBot="1">
-      <c r="B18" s="114"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="113"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="109"/>
+      <c r="Z18" s="109"/>
+      <c r="AA18" s="109"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
@@ -2887,48 +2901,48 @@
     </row>
     <row r="19" spans="1:47" ht="10.5" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="128" t="s">
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="102" t="s">
+      <c r="G19" s="145" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102" t="s">
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102" t="s">
+      <c r="P19" s="145"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="102"/>
-      <c r="W19" s="116" t="s">
+      <c r="T19" s="145"/>
+      <c r="U19" s="145"/>
+      <c r="V19" s="145"/>
+      <c r="W19" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="131" t="s">
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="133"/>
+      <c r="AA19" s="142" t="s">
         <v>15</v>
       </c>
       <c r="AB19" s="14"/>
@@ -2954,32 +2968,32 @@
     </row>
     <row r="20" spans="1:47" ht="10.5" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="132"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="146"/>
+      <c r="T20" s="146"/>
+      <c r="U20" s="146"/>
+      <c r="V20" s="146"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="143"/>
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
@@ -3003,40 +3017,40 @@
     </row>
     <row r="21" spans="1:47" ht="34.5" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="101" t="s">
-        <v>63</v>
+      <c r="B21" s="136"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="148" t="s">
+        <v>62</v>
       </c>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101" t="s">
-        <v>63</v>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148" t="s">
+        <v>62</v>
       </c>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101" t="s">
-        <v>63</v>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148" t="s">
+        <v>62</v>
       </c>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101" t="s">
-        <v>63</v>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="148" t="s">
+        <v>62</v>
       </c>
-      <c r="T21" s="101"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="122"/>
-      <c r="Y21" s="122"/>
-      <c r="Z21" s="123"/>
-      <c r="AA21" s="132"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="148"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="103"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="143"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
@@ -3060,37 +3074,37 @@
     </row>
     <row r="22" spans="1:47" ht="38.25" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="130"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="84" t="s">
+      <c r="I22" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="85" t="s">
+      <c r="J22" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="85" t="s">
+      <c r="K22" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="84" t="s">
-        <v>72</v>
+      <c r="L22" s="84" t="s">
+        <v>58</v>
       </c>
-      <c r="L22" s="84" t="s">
+      <c r="M22" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="M22" s="84" t="s">
+      <c r="N22" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="84" t="s">
+      <c r="O22" s="84" t="s">
         <v>61</v>
-      </c>
-      <c r="O22" s="84" t="s">
-        <v>62</v>
       </c>
       <c r="P22" s="84" t="s">
         <v>16</v>
@@ -3102,7 +3116,7 @@
         <v>18</v>
       </c>
       <c r="S22" s="84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T22" s="84" t="s">
         <v>16</v>
@@ -3113,11 +3127,11 @@
       <c r="V22" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="W22" s="135"/>
-      <c r="X22" s="108"/>
-      <c r="Y22" s="108"/>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="133"/>
+      <c r="W22" s="147"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="144"/>
       <c r="AB22" s="14"/>
       <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
@@ -3144,11 +3158,11 @@
       <c r="B23" s="17">
         <v>1</v>
       </c>
-      <c r="C23" s="104" t="s">
-        <v>74</v>
+      <c r="C23" s="162" t="s">
+        <v>73</v>
       </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="164"/>
       <c r="F23" s="71">
         <v>1</v>
       </c>
@@ -3170,12 +3184,12 @@
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
-      <c r="W23" s="107" t="s">
+      <c r="W23" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="109"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="99"/>
       <c r="AA23" s="20" t="s">
         <v>47</v>
       </c>
@@ -3200,7 +3214,7 @@
       <c r="AT23" s="16"/>
       <c r="AU23" s="16"/>
     </row>
-    <row r="24" spans="1:47" ht="123.6" customHeight="1">
+    <row r="24" spans="1:47" ht="165" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="17">
         <v>2</v>
@@ -3208,8 +3222,8 @@
       <c r="C24" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="105"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="105"/>
       <c r="F24" s="71">
         <v>2</v>
       </c>
@@ -3231,12 +3245,12 @@
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
-      <c r="W24" s="107" t="s">
-        <v>51</v>
+      <c r="W24" s="97" t="s">
+        <v>114</v>
       </c>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="111"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="99"/>
       <c r="AA24" s="20" t="s">
         <v>46</v>
       </c>
@@ -3261,23 +3275,25 @@
       <c r="AT24" s="16"/>
       <c r="AU24" s="16"/>
     </row>
-    <row r="25" spans="1:47" ht="161.4" customHeight="1">
+    <row r="25" spans="1:47" ht="165" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
-      <c r="C25" s="96" t="s">
-        <v>77</v>
+      <c r="C25" s="149" t="s">
+        <v>96</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
       <c r="F25" s="71">
         <v>2</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="19"/>
+      <c r="J25" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
@@ -3290,12 +3306,12 @@
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
-      <c r="W25" s="97" t="s">
-        <v>78</v>
+      <c r="W25" s="150" t="s">
+        <v>97</v>
       </c>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="99"/>
+      <c r="X25" s="151"/>
+      <c r="Y25" s="151"/>
+      <c r="Z25" s="152"/>
       <c r="AA25" s="20" t="s">
         <v>47</v>
       </c>
@@ -3320,16 +3336,16 @@
       <c r="AT25" s="16"/>
       <c r="AU25" s="16"/>
     </row>
-    <row r="26" spans="1:47" ht="161.4" customHeight="1">
+    <row r="26" spans="1:47" ht="178.8" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="94" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
-      <c r="C26" s="100" t="s">
-        <v>80</v>
+      <c r="C26" s="153" t="s">
+        <v>98</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
       <c r="F26" s="71">
         <v>2</v>
       </c>
@@ -3337,7 +3353,9 @@
       <c r="H26" s="19"/>
       <c r="I26" s="22"/>
       <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="K26" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
@@ -3349,12 +3367,12 @@
       <c r="T26" s="19"/>
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
-      <c r="W26" s="97" t="s">
-        <v>81</v>
+      <c r="W26" s="150" t="s">
+        <v>99</v>
       </c>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="99"/>
+      <c r="X26" s="151"/>
+      <c r="Y26" s="151"/>
+      <c r="Z26" s="152"/>
       <c r="AA26" s="20" t="s">
         <v>46</v>
       </c>
@@ -3382,13 +3400,13 @@
     <row r="27" spans="1:47" ht="161.4" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="94" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
-      <c r="C27" s="96" t="s">
-        <v>83</v>
+      <c r="C27" s="149" t="s">
+        <v>100</v>
       </c>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
       <c r="F27" s="71">
         <v>2</v>
       </c>
@@ -3396,7 +3414,9 @@
       <c r="H27" s="19"/>
       <c r="I27" s="22"/>
       <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
+      <c r="K27" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
@@ -3408,12 +3428,12 @@
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
-      <c r="W27" s="97" t="s">
-        <v>84</v>
+      <c r="W27" s="150" t="s">
+        <v>101</v>
       </c>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="99"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="152"/>
       <c r="AA27" s="20" t="s">
         <v>48</v>
       </c>
@@ -3441,13 +3461,13 @@
     <row r="28" spans="1:47" ht="161.4" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="94" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
-      <c r="C28" s="96" t="s">
-        <v>86</v>
+      <c r="C28" s="149" t="s">
+        <v>102</v>
       </c>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
       <c r="F28" s="71">
         <v>2</v>
       </c>
@@ -3467,12 +3487,12 @@
       <c r="T28" s="19"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
-      <c r="W28" s="97" t="s">
-        <v>87</v>
+      <c r="W28" s="150" t="s">
+        <v>103</v>
       </c>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="99"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="151"/>
+      <c r="Z28" s="152"/>
       <c r="AA28" s="20" t="s">
         <v>47</v>
       </c>
@@ -3500,13 +3520,13 @@
     <row r="29" spans="1:47" ht="161.4" customHeight="1">
       <c r="A29" s="16"/>
       <c r="B29" s="94" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
-      <c r="C29" s="100" t="s">
-        <v>89</v>
+      <c r="C29" s="149" t="s">
+        <v>104</v>
       </c>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
       <c r="F29" s="71">
         <v>2</v>
       </c>
@@ -3526,12 +3546,12 @@
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
-      <c r="W29" s="97" t="s">
-        <v>90</v>
+      <c r="W29" s="150" t="s">
+        <v>105</v>
       </c>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="99"/>
+      <c r="X29" s="151"/>
+      <c r="Y29" s="151"/>
+      <c r="Z29" s="152"/>
       <c r="AA29" s="20" t="s">
         <v>46</v>
       </c>
@@ -3559,13 +3579,13 @@
     <row r="30" spans="1:47" ht="161.4" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="94" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
-      <c r="C30" s="96" t="s">
-        <v>92</v>
+      <c r="C30" s="149" t="s">
+        <v>112</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
       <c r="F30" s="71">
         <v>2</v>
       </c>
@@ -3585,12 +3605,12 @@
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
-      <c r="W30" s="97" t="s">
-        <v>93</v>
+      <c r="W30" s="150" t="s">
+        <v>113</v>
       </c>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="99"/>
+      <c r="X30" s="151"/>
+      <c r="Y30" s="151"/>
+      <c r="Z30" s="152"/>
       <c r="AA30" s="20" t="s">
         <v>48</v>
       </c>
@@ -3618,13 +3638,13 @@
     <row r="31" spans="1:47" ht="161.4" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="94" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
-      <c r="C31" s="96" t="s">
-        <v>95</v>
+      <c r="C31" s="149" t="s">
+        <v>106</v>
       </c>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
       <c r="F31" s="71">
         <v>2</v>
       </c>
@@ -3644,12 +3664,12 @@
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
-      <c r="W31" s="97" t="s">
-        <v>96</v>
+      <c r="W31" s="150" t="s">
+        <v>107</v>
       </c>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="99"/>
+      <c r="X31" s="151"/>
+      <c r="Y31" s="151"/>
+      <c r="Z31" s="152"/>
       <c r="AA31" s="20" t="s">
         <v>47</v>
       </c>
@@ -3677,13 +3697,13 @@
     <row r="32" spans="1:47" ht="161.4" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="94" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
-      <c r="C32" s="100" t="s">
-        <v>98</v>
+      <c r="C32" s="149" t="s">
+        <v>108</v>
       </c>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
       <c r="F32" s="71">
         <v>2</v>
       </c>
@@ -3703,12 +3723,12 @@
       <c r="T32" s="19"/>
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
-      <c r="W32" s="97" t="s">
-        <v>99</v>
+      <c r="W32" s="150" t="s">
+        <v>109</v>
       </c>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="99"/>
+      <c r="X32" s="151"/>
+      <c r="Y32" s="151"/>
+      <c r="Z32" s="152"/>
       <c r="AA32" s="20" t="s">
         <v>46</v>
       </c>
@@ -3736,13 +3756,13 @@
     <row r="33" spans="1:47" ht="161.4" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="94" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
-      <c r="C33" s="96" t="s">
-        <v>101</v>
+      <c r="C33" s="149" t="s">
+        <v>110</v>
       </c>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
       <c r="F33" s="71">
         <v>2</v>
       </c>
@@ -3762,12 +3782,12 @@
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
       <c r="V33" s="19"/>
-      <c r="W33" s="97" t="s">
-        <v>102</v>
+      <c r="W33" s="150" t="s">
+        <v>111</v>
       </c>
-      <c r="X33" s="98"/>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="99"/>
+      <c r="X33" s="151"/>
+      <c r="Y33" s="151"/>
+      <c r="Z33" s="152"/>
       <c r="AA33" s="20" t="s">
         <v>46</v>
       </c>
@@ -3797,11 +3817,11 @@
       <c r="B34" s="17">
         <v>3</v>
       </c>
-      <c r="C34" s="149" t="s">
+      <c r="C34" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="150"/>
-      <c r="E34" s="120"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
       <c r="F34" s="71">
         <v>3</v>
       </c>
@@ -3823,12 +3843,12 @@
       <c r="T34" s="19"/>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
-      <c r="W34" s="107" t="s">
-        <v>52</v>
+      <c r="W34" s="97" t="s">
+        <v>51</v>
       </c>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="110"/>
-      <c r="Z34" s="111"/>
+      <c r="X34" s="98"/>
+      <c r="Y34" s="98"/>
+      <c r="Z34" s="99"/>
       <c r="AA34" s="20" t="s">
         <v>47</v>
       </c>
@@ -3841,8 +3861,8 @@
       <c r="C35" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="105"/>
-      <c r="E35" s="106"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="105"/>
       <c r="F35" s="73">
         <v>4</v>
       </c>
@@ -3864,12 +3884,12 @@
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
-      <c r="W35" s="107" t="s">
-        <v>53</v>
+      <c r="W35" s="97" t="s">
+        <v>52</v>
       </c>
-      <c r="X35" s="110"/>
-      <c r="Y35" s="110"/>
-      <c r="Z35" s="111"/>
+      <c r="X35" s="98"/>
+      <c r="Y35" s="98"/>
+      <c r="Z35" s="99"/>
       <c r="AA35" s="20" t="s">
         <v>48</v>
       </c>
@@ -3879,11 +3899,11 @@
       <c r="B36" s="94">
         <v>5</v>
       </c>
-      <c r="C36" s="145" t="s">
+      <c r="C36" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
       <c r="F36" s="79">
         <v>5</v>
       </c>
@@ -3905,12 +3925,12 @@
       <c r="T36" s="19"/>
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
-      <c r="W36" s="107" t="s">
-        <v>54</v>
+      <c r="W36" s="97" t="s">
+        <v>53</v>
       </c>
-      <c r="X36" s="110"/>
-      <c r="Y36" s="110"/>
-      <c r="Z36" s="111"/>
+      <c r="X36" s="98"/>
+      <c r="Y36" s="98"/>
+      <c r="Z36" s="99"/>
       <c r="AA36" s="20" t="s">
         <v>48</v>
       </c>
@@ -3938,10 +3958,10 @@
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
       <c r="V37" s="26"/>
-      <c r="W37" s="152"/>
-      <c r="X37" s="113"/>
-      <c r="Y37" s="113"/>
-      <c r="Z37" s="113"/>
+      <c r="W37" s="115"/>
+      <c r="X37" s="109"/>
+      <c r="Y37" s="109"/>
+      <c r="Z37" s="109"/>
       <c r="AA37" s="27"/>
       <c r="AB37" s="38"/>
     </row>
@@ -3968,10 +3988,10 @@
       <c r="T38" s="29"/>
       <c r="U38" s="29"/>
       <c r="V38" s="29"/>
-      <c r="W38" s="152"/>
-      <c r="X38" s="113"/>
-      <c r="Y38" s="113"/>
-      <c r="Z38" s="113"/>
+      <c r="W38" s="115"/>
+      <c r="X38" s="109"/>
+      <c r="Y38" s="109"/>
+      <c r="Z38" s="109"/>
       <c r="AA38" s="27"/>
     </row>
     <row r="39" spans="1:47" ht="24.75" customHeight="1">
@@ -3987,10 +4007,10 @@
       <c r="H39" s="16"/>
       <c r="I39" s="34"/>
       <c r="J39" s="16"/>
-      <c r="W39" s="151"/>
-      <c r="X39" s="113"/>
-      <c r="Y39" s="113"/>
-      <c r="Z39" s="113"/>
+      <c r="W39" s="114"/>
+      <c r="X39" s="109"/>
+      <c r="Y39" s="109"/>
+      <c r="Z39" s="109"/>
       <c r="AA39" s="23"/>
     </row>
     <row r="40" spans="1:47" ht="24.75" customHeight="1">
@@ -4096,33 +4116,33 @@
     </row>
     <row r="44" spans="1:47" ht="12" customHeight="1">
       <c r="B44" s="24"/>
-      <c r="C44" s="147" t="s">
+      <c r="C44" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="113"/>
-      <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="113"/>
-      <c r="W44" s="113"/>
-      <c r="X44" s="113"/>
-      <c r="Y44" s="113"/>
-      <c r="Z44" s="113"/>
-      <c r="AA44" s="148"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="109"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="109"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="109"/>
+      <c r="AA44" s="110"/>
     </row>
     <row r="45" spans="1:47" ht="12" customHeight="1" thickBot="1">
       <c r="B45" s="45"/>
@@ -4197,14 +4217,14 @@
       <c r="C50" s="50"/>
     </row>
     <row r="51" spans="1:22" ht="15" customHeight="1">
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
       <c r="J51" s="16"/>
       <c r="K51" s="52" t="s">
         <v>30</v>
@@ -4233,22 +4253,22 @@
       </c>
       <c r="D54" s="56"/>
       <c r="E54" s="56"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="122"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
       <c r="J54" s="57"/>
       <c r="K54" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="N54" s="144"/>
-      <c r="O54" s="144"/>
-      <c r="P54" s="144"/>
-      <c r="Q54" s="144"/>
-      <c r="R54" s="144"/>
-      <c r="S54" s="144"/>
-      <c r="T54" s="144"/>
-      <c r="U54" s="144"/>
-      <c r="V54" s="144"/>
+      <c r="N54" s="102"/>
+      <c r="O54" s="102"/>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="102"/>
+      <c r="S54" s="102"/>
+      <c r="T54" s="102"/>
+      <c r="U54" s="102"/>
+      <c r="V54" s="102"/>
     </row>
     <row r="55" spans="1:22" ht="12" customHeight="1">
       <c r="F55" s="55"/>
@@ -33864,36 +33884,31 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C44:AA44"/>
-    <mergeCell ref="N54:V54"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="W36:Z36"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="W37:Z37"/>
-    <mergeCell ref="W38:Z38"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B6:AA6"/>
-    <mergeCell ref="B7:AA7"/>
-    <mergeCell ref="B8:AA8"/>
-    <mergeCell ref="B10:AA10"/>
-    <mergeCell ref="B11:AA11"/>
-    <mergeCell ref="B12:AA12"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K19:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S19:V20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="G19:J20"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="W23:Z23"/>
     <mergeCell ref="C24:E24"/>
@@ -33910,31 +33925,36 @@
     <mergeCell ref="AA19:AA22"/>
     <mergeCell ref="O19:R20"/>
     <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K19:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S19:V20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="G19:J20"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="B7:AA7"/>
+    <mergeCell ref="B8:AA8"/>
+    <mergeCell ref="B10:AA10"/>
+    <mergeCell ref="B11:AA11"/>
+    <mergeCell ref="B12:AA12"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B6:AA6"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C44:AA44"/>
+    <mergeCell ref="N54:V54"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="W37:Z37"/>
+    <mergeCell ref="W38:Z38"/>
   </mergeCells>
   <conditionalFormatting sqref="F53:G54">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
@@ -33949,7 +33969,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="25" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LCódigo de documento:UPDI-PRG-V1-2024-040&amp;CCódigo de proceso: GASE-GPDI-3-6&amp;RREV. UPDI: 2024-jun-20</oddFooter>
   </headerFooter>
@@ -33963,8 +33983,8 @@
   </sheetPr>
   <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -33976,72 +33996,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="159" t="s">
-        <v>73</v>
+      <c r="A2" s="160" t="s">
+        <v>72</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="159"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="159"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="58"/>
@@ -34075,8 +34095,8 @@
         <v>1</v>
       </c>
       <c r="F10" s="89"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="155"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="156"/>
       <c r="I10" s="90"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -34090,8 +34110,8 @@
         <v>45644</v>
       </c>
       <c r="F11" s="89"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
       <c r="I11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -34143,11 +34163,11 @@
         <v>45</v>
       </c>
       <c r="I14" s="93" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="127.2" customHeight="1">
-      <c r="A15" s="156" t="s">
+    <row r="15" spans="1:11" ht="166.8" customHeight="1">
+      <c r="A15" s="157" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="69">
@@ -34159,24 +34179,24 @@
       <c r="D15" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="161" t="s">
-        <v>103</v>
+      <c r="E15" s="96" t="s">
+        <v>84</v>
       </c>
       <c r="F15" s="72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="74" t="s">
         <v>50</v>
       </c>
       <c r="H15" s="87" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="I15" s="87" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="127.2" customHeight="1">
-      <c r="A16" s="157"/>
+    <row r="16" spans="1:11" ht="166.8" customHeight="1">
+      <c r="A16" s="158"/>
       <c r="B16" s="69">
         <v>45644</v>
       </c>
@@ -34186,8 +34206,8 @@
       <c r="D16" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="161" t="s">
-        <v>104</v>
+      <c r="E16" s="96" t="s">
+        <v>85</v>
       </c>
       <c r="F16" s="72" t="s">
         <v>47</v>
@@ -34196,14 +34216,14 @@
         <v>50</v>
       </c>
       <c r="H16" s="88" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="I16" s="88" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="147.6" customHeight="1">
-      <c r="A17" s="157"/>
+    <row r="17" spans="1:9" ht="166.8" customHeight="1">
+      <c r="A17" s="158"/>
       <c r="B17" s="69">
         <v>45644</v>
       </c>
@@ -34213,8 +34233,8 @@
       <c r="D17" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="161" t="s">
-        <v>105</v>
+      <c r="E17" s="96" t="s">
+        <v>86</v>
       </c>
       <c r="F17" s="76" t="s">
         <v>48</v>
@@ -34223,14 +34243,14 @@
         <v>50</v>
       </c>
       <c r="H17" s="88" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="I17" s="88" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="174" customHeight="1">
-      <c r="A18" s="158"/>
+    <row r="18" spans="1:9" ht="166.8" customHeight="1">
+      <c r="A18" s="159"/>
       <c r="B18" s="69">
         <v>45644</v>
       </c>
@@ -34240,8 +34260,8 @@
       <c r="D18" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="161" t="s">
-        <v>106</v>
+      <c r="E18" s="96" t="s">
+        <v>87</v>
       </c>
       <c r="F18" s="72" t="s">
         <v>48</v>
@@ -34250,10 +34270,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="88" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="I18" s="88" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -34268,6 +34288,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c21ef800502b5dc1190a9a0361733939">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" xmlns:ns4="ce621958-37b1-43fe-a1f1-1aad67996a88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30daf50bb6192471b76b9808b4256f50" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -34462,24 +34499,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0679DBA9-5627-44A3-91B7-DABD2A2D7C98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96490F3C-DFF7-4107-BF06-5DD550949EBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D01A9D5D-1824-48C2-8527-9D8749A8DDDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34496,29 +34541,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96490F3C-DFF7-4107-BF06-5DD550949EBD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0679DBA9-5627-44A3-91B7-DABD2A2D7C98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02_Proyecto/09. Programa Auditoria/PROGRAMA_AUDI_INTERNA_GRUPO_5_V3.xlsx
+++ b/02_Proyecto/09. Programa Auditoria/PROGRAMA_AUDI_INTERNA_GRUPO_5_V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBA8E15-893E-4502-8663-0C2215295E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64633893-D0BD-4143-924F-6B4246CFE945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. PROGRAMA" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
   <si>
     <t>Código: UPDI-PRG-V1-2024-040</t>
   </si>
@@ -361,6 +361,69 @@
     <t>Jerly Reinoso</t>
   </si>
   <si>
+    <r>
+      <t>Auditoría de Pagos Online:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se revisará la eficiencia y seguridad de los métodos de pago, confirmando la encriptación de datos y cumplimiento de PCI-DSS.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Seguridad de la Plataforma:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se evaluará la seguridad del sitio web, identificando vulnerabilidades y garantizando la protección de datos del cliente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gestión de Inventarios:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se verificará la actualización en tiempo real del inventario y la integración con sistemas de pedidos y envíos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Experiencia del Usuario (UX):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se evaluará la navegación, tiempos de carga y procesos de compra para garantizar una experiencia fluida y eficiente.</t>
+    </r>
+  </si>
+  <si>
+    <t>Auditoría de Pagos Online: Se revisará la eficiencia y seguridad de los métodos de pago, confirmando la encriptación de datos y cumplimiento de PCI-DSS.</t>
+  </si>
+  <si>
     <t>Seguridad de la Plataforma: Se evaluará la seguridad del sitio web, identificando vulnerabilidades y garantizando la protección de datos del cliente.</t>
   </si>
   <si>
@@ -434,200 +497,137 @@
     <t>Clausula no utilizada</t>
   </si>
   <si>
+    <t>6.2: Fundamental para validar los datos de entrada relacionados con los métodos de pago.
+6.4: Los datos de pago son altamente sensibles y requieren medidas adicionales de protección.</t>
+  </si>
+  <si>
+    <t>6.6: No se requiere pruebas en un entorno local
+6.10: Las pruebas no son basadas en código, sino en funcionalidades de seguridad y encriptación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3: Aborda la gestión de sesiones, que es crucial para la seguridad del sitio web.
+6.4: Garantiza que los datos sensibles del cliente estén protegidos de vulnerabilidades </t>
+  </si>
+  <si>
+    <t>6.7: Las pruebas de seguridad suelen centrarse en vulnerabilidades específicas.
+6.9: No se requieren combinaciones complejas de datos para pruebas de seguridad</t>
+  </si>
+  <si>
+    <t>6.5: Los inventarios no suelen estar diseñados para configuraciones multiusos específicas.
+6.10: No se necesitan pruebas basadas en código, ya que se enfocan en la funcionalidad y consistencia de los datos.</t>
+  </si>
+  <si>
+    <t>6.8: Se verifica la precisión en tiempo real.
+6.2: Valida la precisión y consistencia de los datos de entrada.
+6.4: Garantiza que los datos sensibles se manejen de manera segura.</t>
+  </si>
+  <si>
+    <t>6.4: Asegura que no haya fallos en procesos de compra relacionados con la privacidad del usuario.
+6.7: Evalúa escenarios de usuario para garantizar que la experiencia.
+6.2: Valida los datos que el usuario introduce en los formularios</t>
+  </si>
+  <si>
+    <t>6.6: Las pruebas de UX deben realizarse en un entorno que refleje las condiciones reales.
+6.9: No se requiere manejar combinaciones complejas de datos.</t>
+  </si>
+  <si>
     <t>2.1</t>
+  </si>
+  <si>
+    <t>Verificación de Métodos de Pago</t>
+  </si>
+  <si>
+    <t>Identificación de Pasarelas de Pago Disponibles: Listar y revisar las pasarelas de pago integradas en el sistema (ejemplo: Stripe, PayPal, MercadoPago).
+Pruebas de Funcionalidad de los Métodos de Pago: Realizar pruebas de una transacción completa con cada método de pago para verificar el correcto funcionamiento (incluyendo transacciones autorizadas, rechazadas y fallidas).
+Validación de Métodos Alternativos: Confirmar que existen opciones de pago alternas en caso de falla de una pasarela principal.</t>
   </si>
   <si>
     <t>2.2</t>
   </si>
   <si>
+    <t>Revisión de Cifrado de Datos</t>
+  </si>
+  <si>
+    <t>Verificación del Protocolo HTTPS: Revisar que todo el proceso de pago se realice bajo un canal cifrado.
+Pruebas de Exposición de Datos en Tránsito: Simular ataques como "Man-in-the-Middle" (MITM) para verificar que los datos sensibles no se exponen.
+Cifrado de Datos Sensibles en la Base de Datos: Validar que los números de tarjeta de crédito y otra información sensible estén cifrados con algoritmos robustos.</t>
+  </si>
+  <si>
     <t>2.3</t>
+  </si>
+  <si>
+    <t>Pruebas de Seguridad y Cumplimiento</t>
+  </si>
+  <si>
+    <t>Pruebas de Vulnerabilidades Comunes: Realizar escaneos automatizados y manuales para identificar vulnerabilidades OWASP Top 10 relacionadas con el sistema de pagos.
+Validación de Cumplimiento PCI-DSS: Confirmar que los estándares de almacenamiento de datos, retención y eliminación cumplan con la normativa PCI-DSS.
+Pruebas de Seguridad contra Ataques de Repetición: Asegurarse de que las transacciones repetidas no sean procesadas nuevamente por errores del cliente o ataques maliciosos.</t>
   </si>
   <si>
     <t>2.4</t>
   </si>
   <si>
+    <t>Gestión de Sesiones y Autenticación</t>
+  </si>
+  <si>
+    <t>Tiempos de Expiración de Sesión: Confirmar que las sesiones inactivas expiren automáticamente después de un tiempo predeterminado.
+Revisión de Seguridad de Tokens de Autenticación: Verificar que los tokens utilizados en el proceso de pago sean únicos, de un solo uso y seguros contra ataques de reutilización.
+Validación de Multi-Factor Authentication (MFA): Comprobar si se implementa un segundo factor de autenticación durante procesos críticos, como pagos de alto valor.</t>
+  </si>
+  <si>
     <t>2.5</t>
+  </si>
+  <si>
+    <t>Manejo de Errores en Pagos</t>
+  </si>
+  <si>
+    <t>Mensajes de Error Controlados: Revisar que los mensajes de error sean genéricos y no expongan información técnica.
+Pruebas de Reintentos de Transacciones: Validar que los usuarios puedan reintentar una transacción fallida sin crear duplicados en el sistema.
+Validación de Redirección Correcta: Asegurar que los usuarios sean redirigidos correctamente en caso de errores.</t>
   </si>
   <si>
     <t>2.6</t>
   </si>
   <si>
+    <t>Registro y Monitoreo de Transacciones</t>
+  </si>
+  <si>
+    <t>Revisión de Logs de Transacciones: Confirmar que los registros incluyan toda la información necesaria (ID de transacción, marca de tiempo, estado, IP del cliente).
+Seguridad en el Almacenamiento de Logs: Verificar que los logs estén protegidos contra accesos no autorizados, utilizando cifrado o control de permisos.
+Detección de Actividad Fraudulenta: Validar que existan mecanismos para identificar patrones de fraude.</t>
+  </si>
+  <si>
     <t>2.7</t>
+  </si>
+  <si>
+    <t>Pruebas de Integración del Proceso de Pago con Sistemas Externos</t>
+  </si>
+  <si>
+    <t>Integración con Bancos: Verificar la comunicación fluida entre el sistema y los servidores bancarios para la autorización y liquidación de pagos.
+Sincronización con Sistemas de Facturación: Confirmar que, después de cada transacción exitosa, se genere automáticamente una factura electrónica o recibo para el cliente.
+Pruebas de Tiempos de Respuesta: Validar que las respuestas de las pasarelas de pago cumplan con tiempos aceptables.</t>
   </si>
   <si>
     <t>2.8</t>
   </si>
   <si>
+    <t>Pruebas de Escalabilidad y Concurrencia</t>
+  </si>
+  <si>
+    <t>Carga de Transacciones Simultáneas: Realizar pruebas simulando múltiples usuarios procesando pagos al mismo tiempo para evaluar la estabilidad del sistema.
+Pruebas de Degradación del Sistema: Simular altas cargas para observar cómo el sistema maneja situaciones críticas.
+Validación de Escalabilidad Horizontal: Revisar que el sistema pueda ser escalado para manejar mayores volúmenes de transacciones.</t>
+  </si>
+  <si>
     <t>2.9</t>
   </si>
   <si>
-    <r>
-      <t>Selección de Proveedores:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Se establecerán criterios de evaluación basados en estándares de calidad, capacidad de respuesta y cumplimiento de normativas locales e internacionales.</t>
-    </r>
+    <t>Validación de Políticas de Protección al Usuario Final</t>
   </si>
   <si>
-    <r>
-      <t>Validación de Proveedores:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Se realizarán auditorías documentales y revisiones in situ para garantizar la confiabilidad y el cumplimiento de los requisitos exigidos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Integración de Proveedores:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Se verificará la correcta integración de los nuevos proveedores en los sistemas de gestión de Tiendita.ec, asegurando la automatización de procesos de pedidos y pagos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monitoreo y Evaluación Continua:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Se implementará un sistema de monitoreo para evaluar el desempeño de los proveedores, garantizando la calidad constante y el cumplimiento de acuerdos de nivel de servicio (SLA).</t>
-    </r>
-  </si>
-  <si>
-    <t>6.5: No se requiere evaluar el rendimiento del sistema relacionado con el proveedor.
-6.7: La validación de prototipos no aplica aquí porque se trata de seleccionar proveedores.</t>
-  </si>
-  <si>
-    <t>6.3: Establecer criterios cuantitativos y cualitativos para evaluar a los proveedores.
-6,4: Especificar los casos de prueba relacionados con la capacidad técnica y operativa de los proveedores.</t>
-  </si>
-  <si>
-    <t>6.4: Garantiza que los datos sensibles del cliente estén protegidos de vulnerabilidades.
-6,8: Validar que los proveedores cumplan con los requisitos de seguridad exigidos.</t>
-  </si>
-  <si>
-    <t>6.10: La migración de sistemas no es relevante en la etapa de validación de proveedores.
-6.5: No aplica, ya que el enfoque está en auditorías y conformidad documental, no en evaluar capacidades de rendimiento técnico.</t>
-  </si>
-  <si>
-    <t>6.3: Revisar nuevamente los criterios durante la integración para confirmar que los proveedores cumplen con todos los aspectos previos y posteriores.
-6.5: Probar la capacidad del proveedor para manejar pedidos, pagos y otros procesos bajo diferentes niveles de carga.</t>
-  </si>
-  <si>
-    <t>6.5: Los inventarios no suelen estar diseñados para configuraciones multiusos específicas.
-6.6: Aunque la gestión es importante, en esta etapa puede considerarse redundante al centrarse más en la ejecución.</t>
-  </si>
-  <si>
-    <t>6.4: Diseñar pruebas continuas o programadas para evaluar el desempeño de los proveedores.
-6.6: Documentar y analizar constantemente el desempeño del proveedor en relación con los SLA establecidos.
-6.8: Validar regularmente que los proveedores sigan cumpliendo con los requisitos de seguridad y normativas aplicables.</t>
-  </si>
-  <si>
-    <t>6.7: No es relevante en esta etapa, ya que no se están validando nuevos prototipos, sino monitoreando procesos ya existentes.
-6.10: La migración no es parte del monitoreo continuo..</t>
-  </si>
-  <si>
-    <t>Selección de Proveedores</t>
-  </si>
-  <si>
-    <t>Establecer la capacidad de respuesta, cumplimiento normativo y experiencia técnica de los proveedores.
-Identificar requisitos específicos para la integración con la plataforma de Tiendita.ec, como soporte para pruebas automatizadas y compatibilidad con herramientas de pruebas funcionales (e.g., Cucumber).
-Evaluación documental de los proveedores basada en sus certificaciones y capacidad técnica.
-Implementación de un sistema de puntuación basado en criterios definidos para priorizar los mejores proveedores.</t>
-  </si>
-  <si>
-    <t>Validación de Proveedores</t>
-  </si>
-  <si>
-    <t>Revisión de contratos, políticas de seguridad y certificaciones como ISO/IEC 27001, garantizando que el proveedor cumpla con estándares internacionales.
-Validación del cumplimiento de normativas locales relacionadas con privacidad de datos y comercio electrónico.
-Realizar inspecciones en las instalaciones del proveedor para confirmar la calidad de sus procesos y capacidades técnicas.
-Documentar los hallazgos mediante pruebas específicas diseñadas en Cucumber, simulando escenarios de entrega, gestión de pagos y manejo de pedidos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Integración de Proveedores</t>
-  </si>
-  <si>
-    <t>Implementar pruebas automatizadas en Cucumber para validar la integración de los proveedores con los sistemas de gestión de Tiendita.ec.
-Realizar pruebas de extremo a extremo que incluyan pedidos, pagos y confirmaciones, asegurando una automatización completa y funcional.
-Revisar la sincronización entre los proveedores y los sistemas internos, como inventarios, envíos y pagos.
-Evaluar el flujo de datos mediante scripts en Cucumber, asegurando la confiabilidad de las interacciones con APIs.</t>
-  </si>
-  <si>
-    <t>Monitoreo y Evaluación Continua</t>
-  </si>
-  <si>
-    <t>Configurar herramientas para supervisar en tiempo real el desempeño de los proveedores, como tiempos de respuesta y cumplimiento de acuerdos de nivel de servicio (SLA).
-Implementar pruebas continuas en Cucumber para detectar cualquier falla en los procesos automatizados o incumplimiento en los acuerdos.
-Generar reportes mensuales basados en métricas como disponibilidad, calidad de servicio y cumplimiento de plazos de entrega.
-Revisar los resultados de las pruebas automatizadas para identificar áreas de mejora en la relación con los proveedores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Validación del Desempeño de los Proveedores</t>
-  </si>
-  <si>
-    <t>Simular escenarios de alta demanda mediante pruebas diseñadas en Cucumber para evaluar la capacidad del proveedor de manejar grandes volúmenes de pedidos.
-Diseñar casos de prueba en Cucumber para medir la percepción del cliente final sobre los servicios proporcionados, como tiempos de entrega y calidad del producto.</t>
-  </si>
-  <si>
-    <t>Evaluación de la Seguridad de los Proveedores</t>
-  </si>
-  <si>
-    <t>Realizar pruebas en Cucumber para verificar que los sistemas de los proveedores cumplen con los estándares de seguridad (como cifrado en reposo y en tránsito).
-Simular intentos de acceso no autorizado y brechas de seguridad para evaluar las medidas implementadas por el proveedor.
-Validar la existencia y efectividad de políticas de manejo de datos sensibles, prevención de fraudes y protección ante ataques cibernéticos.
-Diseñar casos de prueba en Cucumber que cubran escenarios críticos relacionados con la exposición de datos.</t>
-  </si>
-  <si>
-    <t>Validación de Acuerdos de Nivel de Servicio</t>
-  </si>
-  <si>
-    <t>Evaluar los acuerdos de nivel de servicio con los proveedores para asegurarse de que incluyen tiempos de respuesta, disponibilidad y resolución de incidentes.
-Diseñar pruebas en Cucumber para verificar el cumplimiento de estos SLA mediante la simulación de solicitudes en tiempo real.
-Crear casos de prueba automatizados en Cucumber que simulen errores comunes (por ejemplo, fallas en la entrega o demoras) y medir la rapidez con la que el proveedor responde y soluciona dichos problemas.</t>
-  </si>
-  <si>
-    <t>Análisis de Escalabilidad del Proveedor</t>
-  </si>
-  <si>
-    <t>Usar Cucumber para realizar pruebas de estrés simulando escenarios de escalabilidad, como un aumento significativo en los volúmenes de pedidos.
-Verificar si los sistemas del proveedor pueden adaptarse al crecimiento proyectado del negocio sin comprometer la calidad del servicio.
-Implementar pruebas que simulen fallos del sistema, como interrupciones en la conectividad o caídas de servidores, evaluando cómo el proveedor mantiene la continuidad del servicio.
-Validar que el proveedor puede mantener costos competitivos a medida que aumentan los volúmenes de transacciones o las demandas de servicio.</t>
-  </si>
-  <si>
-    <t>Evaluación y Retroalimentación Continua</t>
-  </si>
-  <si>
-    <t>Análisis de los resultados de pruebas automatizadas para identificar problemas recurrentes o áreas de mejora en los servicios del proveedor.
-Realización de reuniones periódicas con proveedores para discutir métricas de desempeño, implementar ajustes y garantizar la mejora continua de los procesos.
-Capacitación y actualización del equipo encargado para asegurar que las herramientas y metodologías de prueba (como Cucumber) sigan alineadas con los estándares actuales.</t>
-  </si>
-  <si>
-    <t>Esto incluirá la definición de criterios de calidad y cumplimiento normativo, la validación de proveedores mediante auditorías documentales y la integración a través de pruebas automatizadas con herramientas como Cucumber, asegurando la sincronización de procesos. Además, se implementará un monitoreo constante para validar el desempeño, la seguridad de los proveedores, y el cumplimiento de los acuerdos de nivel de servicio, con un análisis de escalabilidad que garantice la mejora continua y la estabilidad del sistema bajo escenarios de alta demanda.</t>
+    <t>Implementación de Reembolsos: Confirmar que el sistema permita procesar reembolsos con control adecuado y trazabilidad.
+Garantía de Protección de Datos: Validar que la información del usuario nunca sea compartida ni utilizada fuera del propósito original del pago.
+Pruebas de UX en el Proceso de Pago: Asegurar que la experiencia del usuario sea clara y sencilla, con información explícita sobre costos, tiempos y políticas de devolución.</t>
   </si>
 </sst>
 </file>
@@ -895,6 +895,14 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -916,13 +924,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1430,7 +1431,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="29"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="29"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1639,45 +1640,24 @@
     <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="37" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1697,24 +1677,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1723,8 +1689,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1740,6 +1704,23 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1755,57 +1736,37 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="37" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1821,13 +1782,44 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2090,8 +2082,8 @@
   </sheetPr>
   <dimension ref="A1:AU998"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="70" zoomScaleNormal="25" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24:Z24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A18" zoomScale="40" zoomScaleNormal="25" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25:Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2117,34 +2109,34 @@
     </row>
     <row r="2" spans="1:47" ht="42.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="122" t="s">
-        <v>55</v>
+      <c r="B2" s="101"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="105" t="s">
+        <v>60</v>
       </c>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="121"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -2168,34 +2160,34 @@
     </row>
     <row r="3" spans="1:47" ht="48.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="122" t="s">
-        <v>56</v>
+      <c r="B3" s="102"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="105" t="s">
+        <v>61</v>
       </c>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="121"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="89"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
@@ -2219,36 +2211,36 @@
     </row>
     <row r="4" spans="1:47" ht="21" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
-      <c r="W4" s="120"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="122" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="121"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="89"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
@@ -2320,34 +2312,34 @@
       <c r="AU5" s="2"/>
     </row>
     <row r="6" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="109"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
@@ -2364,34 +2356,34 @@
       <c r="AO6" s="7"/>
     </row>
     <row r="7" spans="1:47" ht="26.25" customHeight="1">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
@@ -2408,34 +2400,34 @@
       <c r="AO7" s="7"/>
     </row>
     <row r="8" spans="1:47" ht="51" customHeight="1">
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
@@ -2494,34 +2486,34 @@
       <c r="AO9" s="7"/>
     </row>
     <row r="10" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B10" s="128" t="s">
-        <v>54</v>
+      <c r="B10" s="122" t="s">
+        <v>59</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="109"/>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="109"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
@@ -2539,34 +2531,34 @@
     </row>
     <row r="11" spans="1:47" ht="60" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="109"/>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="109"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -2589,34 +2581,34 @@
       <c r="AU11" s="8"/>
     </row>
     <row r="12" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="109"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
@@ -2633,34 +2625,34 @@
       <c r="AO12" s="7"/>
     </row>
     <row r="13" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="109"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="109"/>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="109"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
@@ -2719,34 +2711,34 @@
       <c r="AO14" s="7"/>
     </row>
     <row r="15" spans="1:47" ht="24.75" customHeight="1">
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="109"/>
-      <c r="W15" s="109"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="109"/>
-      <c r="Z15" s="109"/>
-      <c r="AA15" s="109"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
@@ -2764,34 +2756,34 @@
     </row>
     <row r="16" spans="1:47" ht="24.75" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="109"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
@@ -2814,34 +2806,34 @@
       <c r="AU16" s="2"/>
     </row>
     <row r="17" spans="1:47" ht="24.75" customHeight="1">
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="109"/>
-      <c r="X17" s="109"/>
-      <c r="Y17" s="109"/>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="109"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
@@ -2858,32 +2850,32 @@
       <c r="AO17" s="7"/>
     </row>
     <row r="18" spans="1:47" ht="6.75" customHeight="1" thickBot="1">
-      <c r="B18" s="129"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="109"/>
-      <c r="W18" s="109"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="109"/>
-      <c r="Z18" s="109"/>
-      <c r="AA18" s="109"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
@@ -2901,48 +2893,48 @@
     </row>
     <row r="19" spans="1:47" ht="10.5" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="138" t="s">
+      <c r="C19" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="139" t="s">
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="145" t="s">
-        <v>63</v>
+      <c r="G19" s="131" t="s">
+        <v>68</v>
       </c>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145" t="s">
-        <v>64</v>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131" t="s">
+        <v>69</v>
       </c>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145" t="s">
-        <v>65</v>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131" t="s">
+        <v>70</v>
       </c>
-      <c r="P19" s="145"/>
-      <c r="Q19" s="145"/>
-      <c r="R19" s="145"/>
-      <c r="S19" s="145" t="s">
-        <v>66</v>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131" t="s">
+        <v>71</v>
       </c>
-      <c r="T19" s="145"/>
-      <c r="U19" s="145"/>
-      <c r="V19" s="145"/>
-      <c r="W19" s="131" t="s">
+      <c r="T19" s="131"/>
+      <c r="U19" s="131"/>
+      <c r="V19" s="131"/>
+      <c r="W19" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="X19" s="132"/>
-      <c r="Y19" s="132"/>
-      <c r="Z19" s="133"/>
-      <c r="AA19" s="142" t="s">
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="112"/>
+      <c r="AA19" s="118" t="s">
         <v>15</v>
       </c>
       <c r="AB19" s="14"/>
@@ -2968,32 +2960,32 @@
     </row>
     <row r="20" spans="1:47" ht="10.5" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="146"/>
-      <c r="T20" s="146"/>
-      <c r="U20" s="146"/>
-      <c r="V20" s="146"/>
-      <c r="W20" s="134"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="109"/>
-      <c r="Z20" s="113"/>
-      <c r="AA20" s="143"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="119"/>
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
@@ -3017,40 +3009,40 @@
     </row>
     <row r="21" spans="1:47" ht="34.5" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="148" t="s">
-        <v>62</v>
+      <c r="B21" s="127"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="133" t="s">
+        <v>67</v>
       </c>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="148" t="s">
-        <v>62</v>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133" t="s">
+        <v>67</v>
       </c>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148" t="s">
-        <v>62</v>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133" t="s">
+        <v>67</v>
       </c>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148" t="s">
-        <v>62</v>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133"/>
+      <c r="S21" s="133" t="s">
+        <v>67</v>
       </c>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="143"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
+      <c r="V21" s="133"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="119"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
@@ -3074,64 +3066,64 @@
     </row>
     <row r="22" spans="1:47" ht="38.25" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="84" t="s">
-        <v>67</v>
+      <c r="B22" s="128"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="134" t="s">
+        <v>72</v>
       </c>
-      <c r="H22" s="84" t="s">
-        <v>68</v>
+      <c r="H22" s="134" t="s">
+        <v>73</v>
       </c>
-      <c r="I22" s="85" t="s">
-        <v>69</v>
+      <c r="I22" s="135" t="s">
+        <v>74</v>
       </c>
-      <c r="J22" s="85" t="s">
-        <v>70</v>
+      <c r="J22" s="135" t="s">
+        <v>75</v>
       </c>
-      <c r="K22" s="84" t="s">
-        <v>71</v>
+      <c r="K22" s="134" t="s">
+        <v>76</v>
       </c>
-      <c r="L22" s="84" t="s">
-        <v>58</v>
+      <c r="L22" s="134" t="s">
+        <v>63</v>
       </c>
-      <c r="M22" s="84" t="s">
-        <v>59</v>
+      <c r="M22" s="134" t="s">
+        <v>64</v>
       </c>
-      <c r="N22" s="84" t="s">
-        <v>60</v>
+      <c r="N22" s="134" t="s">
+        <v>65</v>
       </c>
-      <c r="O22" s="84" t="s">
-        <v>61</v>
+      <c r="O22" s="134" t="s">
+        <v>66</v>
       </c>
-      <c r="P22" s="84" t="s">
+      <c r="P22" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="Q22" s="84" t="s">
+      <c r="Q22" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="R22" s="84" t="s">
+      <c r="R22" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="S22" s="84" t="s">
-        <v>61</v>
+      <c r="S22" s="134" t="s">
+        <v>66</v>
       </c>
-      <c r="T22" s="84" t="s">
+      <c r="T22" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="U22" s="84" t="s">
+      <c r="U22" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="84" t="s">
+      <c r="V22" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="W22" s="147"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="120"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="144"/>
+      <c r="W22" s="129"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="120"/>
       <c r="AB22" s="14"/>
       <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
@@ -3158,11 +3150,11 @@
       <c r="B23" s="17">
         <v>1</v>
       </c>
-      <c r="C23" s="162" t="s">
-        <v>73</v>
+      <c r="C23" s="97" t="s">
+        <v>78</v>
       </c>
-      <c r="D23" s="163"/>
-      <c r="E23" s="164"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="98"/>
       <c r="F23" s="71">
         <v>1</v>
       </c>
@@ -3184,12 +3176,12 @@
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
-      <c r="W23" s="97" t="s">
+      <c r="W23" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="99"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="89"/>
       <c r="AA23" s="20" t="s">
         <v>47</v>
       </c>
@@ -3214,16 +3206,16 @@
       <c r="AT23" s="16"/>
       <c r="AU23" s="16"/>
     </row>
-    <row r="24" spans="1:47" ht="165" customHeight="1">
+    <row r="24" spans="1:47" ht="161.4" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="17">
         <v>2</v>
       </c>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="105"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="98"/>
       <c r="F24" s="71">
         <v>2</v>
       </c>
@@ -3245,12 +3237,12 @@
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
-      <c r="W24" s="97" t="s">
-        <v>114</v>
+      <c r="W24" s="87" t="s">
+        <v>55</v>
       </c>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="99"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="92"/>
       <c r="AA24" s="20" t="s">
         <v>46</v>
       </c>
@@ -3275,25 +3267,23 @@
       <c r="AT24" s="16"/>
       <c r="AU24" s="16"/>
     </row>
-    <row r="25" spans="1:47" ht="165" customHeight="1">
+    <row r="25" spans="1:47" ht="161.4" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="94" t="s">
-        <v>75</v>
+      <c r="B25" s="152" t="s">
+        <v>88</v>
       </c>
-      <c r="C25" s="149" t="s">
-        <v>96</v>
+      <c r="C25" s="155" t="s">
+        <v>89</v>
       </c>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
       <c r="F25" s="71">
         <v>2</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
@@ -3306,12 +3296,12 @@
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
-      <c r="W25" s="150" t="s">
-        <v>97</v>
+      <c r="W25" s="156" t="s">
+        <v>90</v>
       </c>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="151"/>
-      <c r="Z25" s="152"/>
+      <c r="X25" s="157"/>
+      <c r="Y25" s="157"/>
+      <c r="Z25" s="158"/>
       <c r="AA25" s="20" t="s">
         <v>47</v>
       </c>
@@ -3336,16 +3326,16 @@
       <c r="AT25" s="16"/>
       <c r="AU25" s="16"/>
     </row>
-    <row r="26" spans="1:47" ht="178.8" customHeight="1">
+    <row r="26" spans="1:47" ht="161.4" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="94" t="s">
-        <v>76</v>
+      <c r="B26" s="152" t="s">
+        <v>91</v>
       </c>
-      <c r="C26" s="153" t="s">
-        <v>98</v>
+      <c r="C26" s="155" t="s">
+        <v>92</v>
       </c>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
       <c r="F26" s="71">
         <v>2</v>
       </c>
@@ -3353,9 +3343,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="22"/>
       <c r="J26" s="19"/>
-      <c r="K26" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
@@ -3367,12 +3355,12 @@
       <c r="T26" s="19"/>
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
-      <c r="W26" s="150" t="s">
-        <v>99</v>
+      <c r="W26" s="156" t="s">
+        <v>93</v>
       </c>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="152"/>
+      <c r="X26" s="157"/>
+      <c r="Y26" s="157"/>
+      <c r="Z26" s="158"/>
       <c r="AA26" s="20" t="s">
         <v>46</v>
       </c>
@@ -3399,14 +3387,14 @@
     </row>
     <row r="27" spans="1:47" ht="161.4" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="94" t="s">
-        <v>77</v>
+      <c r="B27" s="152" t="s">
+        <v>94</v>
       </c>
-      <c r="C27" s="149" t="s">
-        <v>100</v>
+      <c r="C27" s="159" t="s">
+        <v>95</v>
       </c>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
       <c r="F27" s="71">
         <v>2</v>
       </c>
@@ -3414,9 +3402,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="22"/>
       <c r="J27" s="19"/>
-      <c r="K27" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
@@ -3428,12 +3414,12 @@
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
-      <c r="W27" s="150" t="s">
-        <v>101</v>
+      <c r="W27" s="156" t="s">
+        <v>96</v>
       </c>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="152"/>
+      <c r="X27" s="157"/>
+      <c r="Y27" s="157"/>
+      <c r="Z27" s="158"/>
       <c r="AA27" s="20" t="s">
         <v>48</v>
       </c>
@@ -3460,14 +3446,14 @@
     </row>
     <row r="28" spans="1:47" ht="161.4" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="94" t="s">
-        <v>78</v>
+      <c r="B28" s="152" t="s">
+        <v>97</v>
       </c>
-      <c r="C28" s="149" t="s">
-        <v>102</v>
+      <c r="C28" s="159" t="s">
+        <v>98</v>
       </c>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
       <c r="F28" s="71">
         <v>2</v>
       </c>
@@ -3487,12 +3473,12 @@
       <c r="T28" s="19"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
-      <c r="W28" s="150" t="s">
-        <v>103</v>
+      <c r="W28" s="156" t="s">
+        <v>99</v>
       </c>
-      <c r="X28" s="151"/>
-      <c r="Y28" s="151"/>
-      <c r="Z28" s="152"/>
+      <c r="X28" s="157"/>
+      <c r="Y28" s="157"/>
+      <c r="Z28" s="158"/>
       <c r="AA28" s="20" t="s">
         <v>47</v>
       </c>
@@ -3519,14 +3505,14 @@
     </row>
     <row r="29" spans="1:47" ht="161.4" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="94" t="s">
-        <v>79</v>
+      <c r="B29" s="152" t="s">
+        <v>100</v>
       </c>
-      <c r="C29" s="149" t="s">
-        <v>104</v>
+      <c r="C29" s="155" t="s">
+        <v>101</v>
       </c>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="71">
         <v>2</v>
       </c>
@@ -3546,12 +3532,12 @@
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
-      <c r="W29" s="150" t="s">
-        <v>105</v>
+      <c r="W29" s="156" t="s">
+        <v>102</v>
       </c>
-      <c r="X29" s="151"/>
-      <c r="Y29" s="151"/>
-      <c r="Z29" s="152"/>
+      <c r="X29" s="157"/>
+      <c r="Y29" s="157"/>
+      <c r="Z29" s="158"/>
       <c r="AA29" s="20" t="s">
         <v>46</v>
       </c>
@@ -3578,14 +3564,14 @@
     </row>
     <row r="30" spans="1:47" ht="161.4" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="94" t="s">
-        <v>80</v>
+      <c r="B30" s="152" t="s">
+        <v>103</v>
       </c>
-      <c r="C30" s="149" t="s">
-        <v>112</v>
+      <c r="C30" s="159" t="s">
+        <v>104</v>
       </c>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
       <c r="F30" s="71">
         <v>2</v>
       </c>
@@ -3605,12 +3591,12 @@
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
-      <c r="W30" s="150" t="s">
-        <v>113</v>
+      <c r="W30" s="156" t="s">
+        <v>105</v>
       </c>
-      <c r="X30" s="151"/>
-      <c r="Y30" s="151"/>
-      <c r="Z30" s="152"/>
+      <c r="X30" s="157"/>
+      <c r="Y30" s="157"/>
+      <c r="Z30" s="158"/>
       <c r="AA30" s="20" t="s">
         <v>48</v>
       </c>
@@ -3637,14 +3623,14 @@
     </row>
     <row r="31" spans="1:47" ht="161.4" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="149" t="s">
+      <c r="B31" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
+      <c r="C31" s="159" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
       <c r="F31" s="71">
         <v>2</v>
       </c>
@@ -3664,12 +3650,12 @@
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
-      <c r="W31" s="150" t="s">
-        <v>107</v>
+      <c r="W31" s="156" t="s">
+        <v>108</v>
       </c>
-      <c r="X31" s="151"/>
-      <c r="Y31" s="151"/>
-      <c r="Z31" s="152"/>
+      <c r="X31" s="157"/>
+      <c r="Y31" s="157"/>
+      <c r="Z31" s="158"/>
       <c r="AA31" s="20" t="s">
         <v>47</v>
       </c>
@@ -3696,14 +3682,14 @@
     </row>
     <row r="32" spans="1:47" ht="161.4" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="94" t="s">
-        <v>82</v>
+      <c r="B32" s="152" t="s">
+        <v>109</v>
       </c>
-      <c r="C32" s="149" t="s">
-        <v>108</v>
+      <c r="C32" s="155" t="s">
+        <v>110</v>
       </c>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
       <c r="F32" s="71">
         <v>2</v>
       </c>
@@ -3723,12 +3709,12 @@
       <c r="T32" s="19"/>
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
-      <c r="W32" s="150" t="s">
-        <v>109</v>
+      <c r="W32" s="156" t="s">
+        <v>111</v>
       </c>
-      <c r="X32" s="151"/>
-      <c r="Y32" s="151"/>
-      <c r="Z32" s="152"/>
+      <c r="X32" s="157"/>
+      <c r="Y32" s="157"/>
+      <c r="Z32" s="158"/>
       <c r="AA32" s="20" t="s">
         <v>46</v>
       </c>
@@ -3755,14 +3741,14 @@
     </row>
     <row r="33" spans="1:47" ht="161.4" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="94" t="s">
-        <v>83</v>
+      <c r="B33" s="152" t="s">
+        <v>112</v>
       </c>
-      <c r="C33" s="149" t="s">
-        <v>110</v>
+      <c r="C33" s="159" t="s">
+        <v>113</v>
       </c>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
       <c r="F33" s="71">
         <v>2</v>
       </c>
@@ -3782,12 +3768,12 @@
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
       <c r="V33" s="19"/>
-      <c r="W33" s="150" t="s">
-        <v>111</v>
+      <c r="W33" s="156" t="s">
+        <v>114</v>
       </c>
-      <c r="X33" s="151"/>
-      <c r="Y33" s="151"/>
-      <c r="Z33" s="152"/>
+      <c r="X33" s="157"/>
+      <c r="Y33" s="157"/>
+      <c r="Z33" s="158"/>
       <c r="AA33" s="20" t="s">
         <v>46</v>
       </c>
@@ -3817,11 +3803,11 @@
       <c r="B34" s="17">
         <v>3</v>
       </c>
-      <c r="C34" s="111" t="s">
+      <c r="C34" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="114"/>
       <c r="F34" s="71">
         <v>3</v>
       </c>
@@ -3843,12 +3829,12 @@
       <c r="T34" s="19"/>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
-      <c r="W34" s="97" t="s">
-        <v>51</v>
+      <c r="W34" s="87" t="s">
+        <v>56</v>
       </c>
-      <c r="X34" s="98"/>
-      <c r="Y34" s="98"/>
-      <c r="Z34" s="99"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="92"/>
       <c r="AA34" s="20" t="s">
         <v>47</v>
       </c>
@@ -3858,11 +3844,11 @@
       <c r="B35" s="17">
         <v>4</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="105"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="98"/>
       <c r="F35" s="73">
         <v>4</v>
       </c>
@@ -3884,30 +3870,30 @@
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
-      <c r="W35" s="97" t="s">
-        <v>52</v>
+      <c r="W35" s="87" t="s">
+        <v>57</v>
       </c>
-      <c r="X35" s="98"/>
-      <c r="Y35" s="98"/>
-      <c r="Z35" s="99"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="92"/>
       <c r="AA35" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:47" ht="161.4" customHeight="1">
       <c r="A36" s="23"/>
-      <c r="B36" s="94">
+      <c r="B36" s="152">
         <v>5</v>
       </c>
-      <c r="C36" s="106" t="s">
+      <c r="C36" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
       <c r="F36" s="79">
         <v>5</v>
       </c>
-      <c r="G36" s="95"/>
+      <c r="G36" s="160"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
@@ -3925,12 +3911,12 @@
       <c r="T36" s="19"/>
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
-      <c r="W36" s="97" t="s">
-        <v>53</v>
+      <c r="W36" s="87" t="s">
+        <v>58</v>
       </c>
-      <c r="X36" s="98"/>
-      <c r="Y36" s="98"/>
-      <c r="Z36" s="99"/>
+      <c r="X36" s="91"/>
+      <c r="Y36" s="91"/>
+      <c r="Z36" s="92"/>
       <c r="AA36" s="20" t="s">
         <v>48</v>
       </c>
@@ -3958,10 +3944,10 @@
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
       <c r="V37" s="26"/>
-      <c r="W37" s="115"/>
-      <c r="X37" s="109"/>
-      <c r="Y37" s="109"/>
-      <c r="Z37" s="109"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="86"/>
+      <c r="Y37" s="86"/>
+      <c r="Z37" s="86"/>
       <c r="AA37" s="27"/>
       <c r="AB37" s="38"/>
     </row>
@@ -3988,10 +3974,10 @@
       <c r="T38" s="29"/>
       <c r="U38" s="29"/>
       <c r="V38" s="29"/>
-      <c r="W38" s="115"/>
-      <c r="X38" s="109"/>
-      <c r="Y38" s="109"/>
-      <c r="Z38" s="109"/>
+      <c r="W38" s="90"/>
+      <c r="X38" s="86"/>
+      <c r="Y38" s="86"/>
+      <c r="Z38" s="86"/>
       <c r="AA38" s="27"/>
     </row>
     <row r="39" spans="1:47" ht="24.75" customHeight="1">
@@ -4007,10 +3993,10 @@
       <c r="H39" s="16"/>
       <c r="I39" s="34"/>
       <c r="J39" s="16"/>
-      <c r="W39" s="114"/>
-      <c r="X39" s="109"/>
-      <c r="Y39" s="109"/>
-      <c r="Z39" s="109"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="86"/>
+      <c r="Y39" s="86"/>
+      <c r="Z39" s="86"/>
       <c r="AA39" s="23"/>
     </row>
     <row r="40" spans="1:47" ht="24.75" customHeight="1">
@@ -4116,33 +4102,33 @@
     </row>
     <row r="44" spans="1:47" ht="12" customHeight="1">
       <c r="B44" s="24"/>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="109"/>
-      <c r="K44" s="109"/>
-      <c r="L44" s="109"/>
-      <c r="M44" s="109"/>
-      <c r="N44" s="109"/>
-      <c r="O44" s="109"/>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="109"/>
-      <c r="R44" s="109"/>
-      <c r="S44" s="109"/>
-      <c r="T44" s="109"/>
-      <c r="U44" s="109"/>
-      <c r="V44" s="109"/>
-      <c r="W44" s="109"/>
-      <c r="X44" s="109"/>
-      <c r="Y44" s="109"/>
-      <c r="Z44" s="109"/>
-      <c r="AA44" s="110"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="86"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="86"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="86"/>
+      <c r="V44" s="86"/>
+      <c r="W44" s="86"/>
+      <c r="X44" s="86"/>
+      <c r="Y44" s="86"/>
+      <c r="Z44" s="86"/>
+      <c r="AA44" s="100"/>
     </row>
     <row r="45" spans="1:47" ht="12" customHeight="1" thickBot="1">
       <c r="B45" s="45"/>
@@ -4217,14 +4203,14 @@
       <c r="C50" s="50"/>
     </row>
     <row r="51" spans="1:22" ht="15" customHeight="1">
-      <c r="B51" s="100" t="s">
+      <c r="B51" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
       <c r="J51" s="16"/>
       <c r="K51" s="52" t="s">
         <v>30</v>
@@ -4253,22 +4239,22 @@
       </c>
       <c r="D54" s="56"/>
       <c r="E54" s="56"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
       <c r="J54" s="57"/>
       <c r="K54" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="N54" s="102"/>
-      <c r="O54" s="102"/>
-      <c r="P54" s="102"/>
-      <c r="Q54" s="102"/>
-      <c r="R54" s="102"/>
-      <c r="S54" s="102"/>
-      <c r="T54" s="102"/>
-      <c r="U54" s="102"/>
-      <c r="V54" s="102"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="95"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="95"/>
+      <c r="S54" s="95"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="95"/>
+      <c r="V54" s="95"/>
     </row>
     <row r="55" spans="1:22" ht="12" customHeight="1">
       <c r="F55" s="55"/>
@@ -33908,7 +33894,6 @@
     <mergeCell ref="O21:R21"/>
     <mergeCell ref="S19:V20"/>
     <mergeCell ref="S21:V21"/>
-    <mergeCell ref="G19:J20"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="W23:Z23"/>
     <mergeCell ref="C24:E24"/>
@@ -33923,13 +33908,14 @@
     <mergeCell ref="C19:E22"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="AA19:AA22"/>
-    <mergeCell ref="O19:R20"/>
-    <mergeCell ref="W22:Z22"/>
     <mergeCell ref="B7:AA7"/>
     <mergeCell ref="B8:AA8"/>
     <mergeCell ref="B10:AA10"/>
     <mergeCell ref="B11:AA11"/>
     <mergeCell ref="B12:AA12"/>
+    <mergeCell ref="O19:R20"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="G19:J20"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:V4"/>
     <mergeCell ref="W4:X4"/>
@@ -33969,7 +33955,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="25" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LCódigo de documento:UPDI-PRG-V1-2024-040&amp;CCódigo de proceso: GASE-GPDI-3-6&amp;RREV. UPDI: 2024-jun-20</oddFooter>
   </headerFooter>
@@ -33983,8 +33969,8 @@
   </sheetPr>
   <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -33996,72 +33982,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="160" t="s">
-        <v>72</v>
+      <c r="A2" s="142" t="s">
+        <v>77</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="A3" s="160"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="160"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="160"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="160"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
+      <c r="A6" s="142"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="A7" s="160"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="58"/>
@@ -34072,7 +34058,7 @@
       <c r="F8" s="58"/>
       <c r="G8" s="58"/>
       <c r="H8" s="58"/>
-      <c r="K8" s="86"/>
+      <c r="K8" s="136"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="58"/>
@@ -34094,10 +34080,10 @@
       <c r="E10" s="60">
         <v>1</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="90"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="58"/>
@@ -34109,10 +34095,10 @@
       <c r="E11" s="61">
         <v>45644</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="90"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="147"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="58" t="s">
@@ -34122,10 +34108,10 @@
       <c r="C12" s="58"/>
       <c r="D12" s="62"/>
       <c r="E12" s="58"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="90"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="147"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="63"/>
@@ -34150,7 +34136,7 @@
       <c r="D14" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="83" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="67" t="s">
@@ -34159,15 +34145,15 @@
       <c r="G14" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="92" t="s">
+      <c r="H14" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="93" t="s">
-        <v>74</v>
+      <c r="I14" s="151" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="166.8" customHeight="1">
-      <c r="A15" s="157" t="s">
+    <row r="15" spans="1:11" ht="127.2" customHeight="1">
+      <c r="A15" s="139" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="69">
@@ -34179,24 +34165,24 @@
       <c r="D15" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="96" t="s">
-        <v>84</v>
+      <c r="E15" s="82" t="s">
+        <v>51</v>
       </c>
       <c r="F15" s="72" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G15" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="87" t="s">
-        <v>89</v>
+      <c r="H15" s="137" t="s">
+        <v>80</v>
       </c>
-      <c r="I15" s="87" t="s">
-        <v>88</v>
+      <c r="I15" s="137" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="166.8" customHeight="1">
-      <c r="A16" s="158"/>
+    <row r="16" spans="1:11" ht="127.2" customHeight="1">
+      <c r="A16" s="140"/>
       <c r="B16" s="69">
         <v>45644</v>
       </c>
@@ -34206,8 +34192,8 @@
       <c r="D16" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="96" t="s">
-        <v>85</v>
+      <c r="E16" s="82" t="s">
+        <v>52</v>
       </c>
       <c r="F16" s="72" t="s">
         <v>47</v>
@@ -34215,26 +34201,26 @@
       <c r="G16" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="88" t="s">
-        <v>90</v>
+      <c r="H16" s="138" t="s">
+        <v>82</v>
       </c>
-      <c r="I16" s="88" t="s">
-        <v>91</v>
+      <c r="I16" s="138" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="166.8" customHeight="1">
-      <c r="A17" s="158"/>
+    <row r="17" spans="1:9" ht="132.6" customHeight="1">
+      <c r="A17" s="140"/>
       <c r="B17" s="69">
         <v>45644</v>
       </c>
       <c r="C17" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="96" t="s">
-        <v>86</v>
+      <c r="E17" s="82" t="s">
+        <v>53</v>
       </c>
       <c r="F17" s="76" t="s">
         <v>48</v>
@@ -34242,15 +34228,15 @@
       <c r="G17" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="88" t="s">
-        <v>92</v>
+      <c r="H17" s="138" t="s">
+        <v>85</v>
       </c>
-      <c r="I17" s="88" t="s">
-        <v>93</v>
+      <c r="I17" s="138" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="166.8" customHeight="1">
-      <c r="A18" s="159"/>
+    <row r="18" spans="1:9" ht="142.80000000000001" customHeight="1">
+      <c r="A18" s="141"/>
       <c r="B18" s="69">
         <v>45644</v>
       </c>
@@ -34260,8 +34246,8 @@
       <c r="D18" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="96" t="s">
-        <v>87</v>
+      <c r="E18" s="82" t="s">
+        <v>54</v>
       </c>
       <c r="F18" s="72" t="s">
         <v>48</v>
@@ -34269,11 +34255,11 @@
       <c r="G18" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="88" t="s">
-        <v>94</v>
+      <c r="H18" s="138" t="s">
+        <v>86</v>
       </c>
-      <c r="I18" s="88" t="s">
-        <v>95</v>
+      <c r="I18" s="138" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -34288,14 +34274,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -34304,7 +34282,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c21ef800502b5dc1190a9a0361733939">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" xmlns:ns4="ce621958-37b1-43fe-a1f1-1aad67996a88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30daf50bb6192471b76b9808b4256f50" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -34499,24 +34477,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0679DBA9-5627-44A3-91B7-DABD2A2D7C98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96490F3C-DFF7-4107-BF06-5DD550949EBD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -34524,7 +34493,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D01A9D5D-1824-48C2-8527-9D8749A8DDDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34541,4 +34510,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0679DBA9-5627-44A3-91B7-DABD2A2D7C98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>